--- a/code/s3d/document/design/API-record-query.xlsx
+++ b/code/s3d/document/design/API-record-query.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>Module</t>
   </si>
@@ -43,16 +43,63 @@
   <si>
     <t>status</t>
   </si>
+  <si>
+    <t>hosital</t>
+  </si>
+  <si>
+    <t>档案检索</t>
+  </si>
+  <si>
+    <r>
+      <t>{
+"userId":112312, 
+"queryCate":1, 
+"userInput":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>我们，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -120,6 +167,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -127,6 +188,74 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,9 +277,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -162,31 +291,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,68 +308,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,6 +331,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,78 +384,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -409,25 +408,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,6 +433,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,6 +481,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,21 +596,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -574,26 +606,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,153 +633,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1252,7 +1299,7 @@
   <dimension ref="A1:XFA27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="10.5"/>
@@ -17668,13 +17715,21 @@
       <c r="XEZ1" s="20"/>
       <c r="XFA1" s="20"/>
     </row>
-    <row r="2" ht="20" customHeight="1" spans="1:16381">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
+    <row r="2" ht="58" customHeight="1" spans="1:16381">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="18"/>
